--- a/files/Book1 - Copy.xlsx
+++ b/files/Book1 - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8220" windowWidth="19875" xWindow="480" yWindow="390"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="390" windowWidth="19875" windowHeight="8220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,170 +13,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>INVESTORS' DATABASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>AMOUNT INVESTED(₦)</t>
-  </si>
-  <si>
-    <t>TIME INVESTED</t>
-  </si>
-  <si>
-    <t>ROI DUE(₦)</t>
-  </si>
-  <si>
-    <t>ROI + CAPITAL(₦)</t>
-  </si>
-  <si>
-    <t>PAY DATE</t>
-  </si>
-  <si>
-    <t>JI-1</t>
-  </si>
-  <si>
-    <t>MR. OLUREMI DANIEL YINKA</t>
-  </si>
-  <si>
-    <t>12.32pm, 12th of February, 2020</t>
-  </si>
-  <si>
-    <t>12th of March, 2020</t>
-  </si>
-  <si>
-    <t>JI-2</t>
-  </si>
-  <si>
-    <t>MRS. BUKUNOLA OLAYIMIKA AJAYI</t>
-  </si>
-  <si>
-    <t>2,500,000</t>
-  </si>
-  <si>
-    <t>08:04pm, 15th of May, 2020</t>
-  </si>
-  <si>
-    <t>500,000</t>
-  </si>
-  <si>
-    <t>3,000,000</t>
-  </si>
-  <si>
-    <t>15th of June, 2020</t>
-  </si>
-  <si>
-    <t>JI-3</t>
-  </si>
-  <si>
-    <t>MR. OSHIOKE IGHADARO</t>
-  </si>
-  <si>
-    <t>5,000,000</t>
-  </si>
-  <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
-    <t>6,000,000</t>
-  </si>
-  <si>
-    <t>JI-4</t>
-  </si>
-  <si>
-    <t>MR. BLESSING AKAH</t>
-  </si>
-  <si>
-    <t>08:05pm, 15th of May, 2020</t>
-  </si>
-  <si>
-    <t>100,000</t>
-  </si>
-  <si>
-    <t>600,000</t>
-  </si>
-  <si>
-    <t>JI-5</t>
-  </si>
-  <si>
-    <t>MRS. GBEMISOLA FRIDOUZ WEALTH</t>
-  </si>
-  <si>
-    <t>1,200,000</t>
-  </si>
-  <si>
-    <t>08:06pm, 15th of May, 2020</t>
-  </si>
-  <si>
-    <t>240,000</t>
-  </si>
-  <si>
-    <t>1,440,000</t>
-  </si>
-  <si>
-    <t>JI-6</t>
-  </si>
-  <si>
-    <t>MRS. OLUREMI WURAOLA</t>
-  </si>
-  <si>
-    <t>JI-7</t>
-  </si>
-  <si>
-    <t>MRS. INDEFREKE BOLU</t>
-  </si>
-  <si>
-    <t>07:42pm, 17th of May, 2020</t>
-  </si>
-  <si>
-    <t>48,000</t>
-  </si>
-  <si>
-    <t>288,000</t>
-  </si>
-  <si>
-    <t>17th of June, 2020</t>
-  </si>
-  <si>
-    <t>JI-8</t>
-  </si>
-  <si>
-    <t>MR. SHEKAU BUHARI</t>
-  </si>
-  <si>
-    <t>200,000</t>
-  </si>
-  <si>
-    <t>07:08pm, 18th of May, 2020</t>
-  </si>
-  <si>
-    <t>40,000</t>
-  </si>
-  <si>
-    <t>18th of June, 2020</t>
-  </si>
-  <si>
-    <t>JI-9</t>
-  </si>
-  <si>
-    <t>MRS. OTUTU GEORGINA</t>
-  </si>
-  <si>
-    <t>08:19pm, 21st of May, 2020</t>
-  </si>
-  <si>
-    <t>21st of June, 2020</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -268,39 +104,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -641,70 +477,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="10.42578125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="33.7109375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="22.5703125"/>
-    <col customWidth="1" max="4" min="4" style="8" width="30.5703125"/>
-    <col customWidth="1" max="5" min="5" style="8" width="15.42578125"/>
-    <col customWidth="1" max="6" min="6" style="8" width="16.85546875"/>
-    <col customWidth="1" max="7" min="7" style="8" width="24.28515625"/>
+    <col width="10.42578125" customWidth="1" style="8" min="1" max="1"/>
+    <col width="33.7109375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="8" min="3" max="3"/>
+    <col width="30.5703125" customWidth="1" style="8" min="4" max="4"/>
+    <col width="15.42578125" customWidth="1" style="8" min="5" max="5"/>
+    <col width="16.85546875" customWidth="1" style="8" min="6" max="6"/>
+    <col width="24.28515625" customWidth="1" style="8" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7"/>
-    <row r="2" spans="1:7"/>
-    <row r="3" spans="1:7">
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7"/>
-    <row r="5" spans="1:7"/>
-    <row r="6" spans="1:7"/>
-    <row r="7" spans="1:7"/>
-    <row customHeight="1" ht="15.75" r="8" spans="1:7" thickBot="1"/>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>INVESTORS' DATABASE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ID</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>AMOUNT INVESTED(₦)</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>TIME INVESTED</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>ROI DUE(₦)</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>ROI + CAPITAL(₦)</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>PAY DATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>JI-1</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>MR. OLUREMI DANIEL YINKA</t>
+        </is>
       </c>
       <c r="C10" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>12.32pm, 12th of February, 2020</t>
+        </is>
       </c>
       <c r="E10" s="2" t="n">
         <v>10000</v>
@@ -712,199 +570,350 @@
       <c r="F10" s="2" t="n">
         <v>60000</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>52</v>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>12th of March, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JI-2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MRS. BUKUNOLA OLAYIMIKA AJAYI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,500,000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>08:04pm, 15th of May, 2020</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>500,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3,000,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>15th of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JI-3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MR. OSHIOKE IGHADARO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5,000,000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>08:04pm, 15th of May, 2020</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,000,000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6,000,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>15th of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JI-4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MR. BLESSING AKAH</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>500,000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>08:05pm, 15th of May, 2020</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>600,000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>15th of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JI-5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MRS. GBEMISOLA FRIDOUZ WEALTH</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,200,000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>08:06pm, 15th of May, 2020</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>240,000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1,440,000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>15th of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JI-6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MRS. OLUREMI WURAOLA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,500,000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>08:06pm, 15th of May, 2020</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>500,000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3,000,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>15th of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JI-7</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MRS. INDEFREKE BOLU</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>240,000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>07:42pm, 17th of May, 2020</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48,000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>288,000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>17th of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>JI-8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MR. SHEKAU BUHARI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>200,000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>07:08pm, 18th of May, 2020</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>240,000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18th of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JI-9</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MRS. OTUTU GEORGINA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>500,000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>08:19pm, 21st of May, 2020</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>600,000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>21st of June, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JI-10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MR. OLUWABUBA VICTOR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>03:35am, 23rd of May, 2020</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24,000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>144,000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23rd of June, 2020</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:G5"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="8"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
@@ -924,7 +933,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -942,6 +951,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>